--- a/大纲.xlsx
+++ b/大纲.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="概览" sheetId="3" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="区域" sheetId="5" r:id="rId5"/>
     <sheet name="流程" sheetId="6" r:id="rId6"/>
     <sheet name="剧情" sheetId="7" r:id="rId7"/>
+    <sheet name="事件" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>剧情</t>
   </si>
@@ -61,16 +62,19 @@
     <t>传说生物</t>
   </si>
   <si>
-    <t>普通/精英/首领/传奇/神话</t>
-  </si>
-  <si>
-    <t>生命值/攻击/防御/速度/刷新速度/区域数量上限/特效/掉落/</t>
+    <t>普通/精英/首领/神话</t>
+  </si>
+  <si>
+    <t>生命值/攻击/防御/速度/特效/掉落/</t>
   </si>
   <si>
     <t>道具</t>
   </si>
   <si>
     <t>数量/耐久/效果/制作时间/制作材料</t>
+  </si>
+  <si>
+    <t>工作台</t>
   </si>
   <si>
     <t>建筑</t>
@@ -139,6 +143,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -160,7 +179,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -168,6 +187,21 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -181,13 +215,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -196,6 +223,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
@@ -235,6 +270,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -242,44 +284,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -290,25 +294,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -320,91 +426,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -416,55 +462,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,11 +488,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,6 +518,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -519,6 +547,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,41 +585,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -589,10 +593,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -601,133 +605,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -801,15 +805,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>169545</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>109220</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>189230</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>71120</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -818,8 +822,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7197090" y="238125"/>
-          <a:ext cx="8266430" cy="5448300"/>
+          <a:off x="7214235" y="1309370"/>
+          <a:ext cx="8266430" cy="5791200"/>
           <a:chOff x="11370" y="3030"/>
           <a:chExt cx="13018" cy="7770"/>
         </a:xfrm>
@@ -1039,6 +1043,54 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>421640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>59690</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2792730" cy="271780"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="文本框 7"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10209530" y="2802890"/>
+          <a:ext cx="2792730" cy="271780"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1300,10 +1352,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -1387,68 +1439,73 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:1">
       <c r="A20" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="B22" t="s">
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="25" spans="2:2">
       <c r="B25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="2:2">
       <c r="B26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="2:2">
       <c r="B27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2">
+      <c r="B29" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" t="s">
+    <row r="30" spans="2:2">
+      <c r="B30" t="s">
         <v>27</v>
       </c>
-      <c r="B30" t="s">
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="2:2">
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="2:2">
-      <c r="B32" t="s">
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1476,7 +1533,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1563,4 +1620,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>